--- a/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303FB56-18E9-473A-8384-354FD40263AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0303FB56-18E9-473A-8384-354FD40263AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72BD9E0-AD77-4872-838E-EBDBEED07681}"/>
   <bookViews>
     <workbookView xWindow="-1440" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{61F8E64B-4BE9-4D41-A666-7EEAEBD9DF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
   <si>
     <t>Trial</t>
   </si>
@@ -57,89 +57,161 @@
     <t>NULL</t>
   </si>
   <si>
+    <t>Pseudo</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>MonocL</t>
+  </si>
+  <si>
     <t>3D</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>MonocL</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>Pseudo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,24 +570,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D929D096-5C80-42B2-8C2B-4FE32C09AEEB}">
-  <dimension ref="A1:R194"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -546,18 +618,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -571,18 +646,21 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -596,17 +674,20 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="b">
@@ -621,18 +702,21 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -646,18 +730,21 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -671,18 +758,21 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -696,18 +786,21 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -721,18 +814,21 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -746,18 +842,21 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -771,18 +870,21 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -796,18 +898,21 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -821,18 +926,21 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -846,18 +954,21 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -871,18 +982,21 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -896,21 +1010,24 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -921,21 +1038,24 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -946,18 +1066,21 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -971,18 +1094,21 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -996,18 +1122,21 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1021,18 +1150,21 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1046,18 +1178,21 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1071,18 +1206,21 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1096,18 +1234,21 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1121,52 +1262,60 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1178,18 +1327,21 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1201,18 +1353,21 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1224,18 +1379,21 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1247,18 +1405,21 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1270,18 +1431,21 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1293,18 +1457,21 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1316,18 +1483,21 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1339,21 +1509,24 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
@@ -1362,21 +1535,24 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
@@ -1385,18 +1561,21 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1408,18 +1587,21 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1431,18 +1613,21 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1454,18 +1639,21 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1477,18 +1665,21 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1500,18 +1691,21 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1523,18 +1717,21 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1546,18 +1743,21 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1569,17 +1769,20 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="b">
@@ -1592,18 +1795,21 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1615,18 +1821,21 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1638,18 +1847,21 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1661,1306 +1873,1446 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="3">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E115" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C122" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -2968,1083 +3320,1174 @@
       <c r="D126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C127" s="3">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>6</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>6</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E143" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="1"/>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>7</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>7</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>7</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>7</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" s="3">
-        <v>1</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>7</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C151" s="3">
-        <v>1</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>7</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C152" s="3">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C177" s="3">
         <v>24</v>
       </c>
-      <c r="E156" s="1"/>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="1"/>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="1"/>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166" s="1"/>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="1"/>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="1"/>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="1"/>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>8</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>8</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>8</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>8</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>8</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E177" s="1"/>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>8</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
@@ -4057,122 +4500,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194">
-        <v>0</v>
-      </c>
-      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C202" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0303FB56-18E9-473A-8384-354FD40263AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72BD9E0-AD77-4872-838E-EBDBEED07681}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56AA8E-44EC-4F39-BC0F-19D7C4CCDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{61F8E64B-4BE9-4D41-A666-7EEAEBD9DF71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61F8E64B-4BE9-4D41-A666-7EEAEBD9DF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -205,13 +205,22 @@
   </si>
   <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
+    <t>UncoverCue.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,24 +579,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D929D096-5C80-42B2-8C2B-4FE32C09AEEB}">
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -618,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -646,7 +655,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -674,7 +683,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -702,7 +711,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -730,7 +739,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -758,7 +767,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -786,7 +795,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -814,7 +823,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -842,7 +851,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -870,7 +879,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -898,7 +907,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -926,7 +935,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -954,7 +963,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -982,7 +991,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1010,7 +1019,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1038,7 +1047,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1066,7 +1075,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1094,7 +1103,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1122,7 +1131,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1150,7 +1159,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1178,7 +1187,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1206,7 +1215,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1234,7 +1243,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1262,7 +1271,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1290,7 +1299,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1327,7 +1336,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1353,7 +1362,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1379,7 +1388,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1405,7 +1414,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1431,7 +1440,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1457,7 +1466,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1483,7 +1492,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1509,7 +1518,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1535,7 +1544,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1561,7 +1570,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1587,7 +1596,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1613,7 +1622,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1639,7 +1648,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1665,7 +1674,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1691,7 +1700,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1717,7 +1726,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1743,7 +1752,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1769,7 +1778,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1795,7 +1804,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1847,7 +1856,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1873,7 +1882,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1899,7 +1908,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1925,35 +1934,38 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1967,10 +1979,10 @@
         <v>33</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1981,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1998,13 +2010,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2015,13 +2027,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2032,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2049,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2066,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2083,13 +2095,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2100,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2117,13 +2129,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2134,13 +2146,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2151,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2168,14 +2180,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>31</v>
+      </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2186,13 +2197,14 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2203,13 +2215,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2220,13 +2232,13 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2237,13 +2249,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2254,13 +2266,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2271,13 +2283,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2288,13 +2300,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2305,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2322,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2339,64 +2351,61 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C79" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>4</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2407,16 +2416,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2427,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2447,16 +2456,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2467,16 +2476,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2487,16 +2496,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2507,16 +2516,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2527,16 +2536,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2547,16 +2556,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2567,16 +2576,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2587,16 +2596,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2607,16 +2616,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2627,16 +2636,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2647,16 +2656,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2667,16 +2676,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2687,16 +2696,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2707,16 +2716,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2727,16 +2736,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2747,16 +2756,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2767,16 +2776,16 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2787,16 +2796,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2807,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2827,67 +2836,67 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C104" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>5</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2898,16 +2907,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2918,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2938,16 +2947,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2958,16 +2967,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2978,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2998,16 +3007,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3018,16 +3027,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3038,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3058,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3078,16 +3087,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3098,16 +3107,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3118,16 +3127,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3138,16 +3147,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3158,16 +3167,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3178,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3198,16 +3207,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3218,16 +3227,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3238,16 +3247,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3258,16 +3267,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3278,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3298,16 +3307,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3318,67 +3327,67 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C129" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>6</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>6</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3389,16 +3398,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3409,16 +3418,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3429,16 +3438,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3449,16 +3458,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3469,16 +3478,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3489,16 +3498,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3509,16 +3518,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3529,16 +3538,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3549,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3569,16 +3578,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3589,16 +3598,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3609,16 +3618,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3629,16 +3638,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3649,16 +3658,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3669,16 +3678,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3689,16 +3698,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3709,16 +3718,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3729,16 +3738,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3749,16 +3758,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3769,16 +3778,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3789,16 +3798,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3809,572 +3818,578 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C154" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C180" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>8</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>8</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E180" s="1"/>
-      <c r="F180" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8</v>
       </c>
@@ -4385,14 +4400,14 @@
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4403,14 +4418,14 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4421,14 +4436,14 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4439,14 +4454,14 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4457,14 +4472,14 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4475,14 +4490,14 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4493,14 +4508,14 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4511,14 +4526,14 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4529,14 +4544,14 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4547,14 +4562,14 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4565,14 +4580,14 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4583,14 +4598,14 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4601,14 +4616,14 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4619,14 +4634,14 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4637,14 +4652,14 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4655,14 +4670,14 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4673,14 +4688,14 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4691,14 +4706,14 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4709,14 +4724,14 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4727,14 +4742,14 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4745,21 +4760,95 @@
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C205" s="3">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C206" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56AA8E-44EC-4F39-BC0F-19D7C4CCDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7C9F5E-784B-4889-8736-00241A59E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61F8E64B-4BE9-4D41-A666-7EEAEBD9DF71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D929D096-5C80-42B2-8C2B-4FE32C09AEEB}">
   <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181:E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,6 +1978,9 @@
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
@@ -1995,6 +1998,9 @@
       <c r="D55" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
@@ -2012,6 +2018,9 @@
       <c r="D56" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
@@ -2029,6 +2038,9 @@
       <c r="D57" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
@@ -2046,6 +2058,9 @@
       <c r="D58" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
@@ -2063,6 +2078,9 @@
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
@@ -2080,6 +2098,9 @@
       <c r="D60" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
@@ -2097,6 +2118,9 @@
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
@@ -2114,6 +2138,9 @@
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
@@ -2131,6 +2158,9 @@
       <c r="D63" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
@@ -2148,6 +2178,9 @@
       <c r="D64" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
@@ -2165,6 +2198,9 @@
       <c r="D65" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
@@ -2182,6 +2218,9 @@
       <c r="D66" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
@@ -2199,7 +2238,9 @@
       <c r="D67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
@@ -2217,6 +2258,9 @@
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
@@ -2234,6 +2278,9 @@
       <c r="D69" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
@@ -2251,6 +2298,9 @@
       <c r="D70" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
@@ -2268,6 +2318,9 @@
       <c r="D71" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
@@ -2285,6 +2338,9 @@
       <c r="D72" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
@@ -2302,6 +2358,9 @@
       <c r="D73" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
@@ -2319,6 +2378,9 @@
       <c r="D74" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
@@ -2336,6 +2398,9 @@
       <c r="D75" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
@@ -2353,6 +2418,9 @@
       <c r="D76" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
@@ -2370,6 +2438,9 @@
       <c r="D77" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
@@ -4402,7 +4473,9 @@
       <c r="D181" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E181" s="1"/>
+      <c r="E181" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
@@ -4420,7 +4493,9 @@
       <c r="D182" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E182" s="1"/>
+      <c r="E182" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
@@ -4438,7 +4513,9 @@
       <c r="D183" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E183" s="1"/>
+      <c r="E183" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
@@ -4456,7 +4533,9 @@
       <c r="D184" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
@@ -4474,7 +4553,9 @@
       <c r="D185" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E185" s="1"/>
+      <c r="E185" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
@@ -4492,7 +4573,9 @@
       <c r="D186" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E186" s="1"/>
+      <c r="E186" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
@@ -4510,7 +4593,9 @@
       <c r="D187" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E187" s="1"/>
+      <c r="E187" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
@@ -4528,7 +4613,9 @@
       <c r="D188" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E188" s="1"/>
+      <c r="E188" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
@@ -4546,7 +4633,9 @@
       <c r="D189" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="1"/>
+      <c r="E189" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
@@ -4564,7 +4653,9 @@
       <c r="D190" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="1"/>
+      <c r="E190" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
@@ -4582,7 +4673,9 @@
       <c r="D191" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E191" s="1"/>
+      <c r="E191" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
@@ -4600,7 +4693,9 @@
       <c r="D192" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E192" s="1"/>
+      <c r="E192" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
@@ -4618,7 +4713,9 @@
       <c r="D193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E193" s="1"/>
+      <c r="E193" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
@@ -4636,7 +4733,9 @@
       <c r="D194" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E194" s="1"/>
+      <c r="E194" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
@@ -4654,7 +4753,9 @@
       <c r="D195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E195" s="1"/>
+      <c r="E195" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
@@ -4672,7 +4773,9 @@
       <c r="D196" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E196" s="1"/>
+      <c r="E196" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
@@ -4690,7 +4793,9 @@
       <c r="D197" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E197" s="1"/>
+      <c r="E197" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
@@ -4708,7 +4813,9 @@
       <c r="D198" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E198" s="1"/>
+      <c r="E198" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F198" t="b">
         <v>1</v>
       </c>
@@ -4726,7 +4833,9 @@
       <c r="D199" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E199" s="1"/>
+      <c r="E199" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
@@ -4744,7 +4853,9 @@
       <c r="D200" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E200" s="1"/>
+      <c r="E200" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
@@ -4762,7 +4873,9 @@
       <c r="D201" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E201" s="1"/>
+      <c r="E201" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
@@ -4780,7 +4893,9 @@
       <c r="D202" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E202" s="1"/>
+      <c r="E202" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
@@ -4798,7 +4913,9 @@
       <c r="D203" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E203" s="1"/>
+      <c r="E203" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
@@ -4816,7 +4933,9 @@
       <c r="D204" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E204" s="1"/>
+      <c r="E204" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F204" t="b">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E904D1-A046-44AA-8B4E-C73473B71838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -59,144 +51,6 @@
     <t>Pseudo</t>
   </si>
   <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
@@ -209,16 +63,154 @@
     <t>CUE</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
-    <t>CoverCue.jpg</t>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,25 +569,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="Q184" sqref="Q184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -626,507 +618,507 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1139,507 +1131,507 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C53" s="3">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1650,487 +1642,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2141,7 +2133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2152,16 +2144,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2172,16 +2164,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2192,16 +2184,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2212,16 +2204,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2232,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2252,16 +2244,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2272,16 +2264,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2292,16 +2284,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2312,16 +2304,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2332,16 +2324,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2352,16 +2344,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2372,16 +2364,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2392,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2412,16 +2404,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2432,16 +2424,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2452,16 +2444,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2472,16 +2464,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2492,16 +2484,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2512,16 +2504,16 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2532,16 +2524,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2552,16 +2544,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2572,16 +2564,16 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2592,16 +2584,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2612,16 +2604,16 @@
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2632,487 +2624,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="3">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3123,487 +3115,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C149" s="3">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E149" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3614,7 +3606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3625,496 +3617,496 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C179" s="3">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4125,507 +4117,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>8</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C205" s="3">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
